--- a/GATEWAY/A1#111#NETMEDICAITALIASRLXX/NETMEDICAITALIA/NETMEDICA/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#NETMEDICAITALIASRLXX/NETMEDICAITALIA/NETMEDICA/1.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrea.buzzino\Documents\Netmedica\Gateway\Accreditamento Gateway 20250507\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrea.buzzino\Documents\Netmedica\Gateway\Accreditamento Gateway 20250508\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D61F125-2855-4F3C-9EC2-35DD98C25845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0A4BF3-E1BD-4D40-90D9-26755F62BE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1721,22 +1721,22 @@
     <t>subject_application_version: 1.0</t>
   </si>
   <si>
-    <t>2025-05-07T13:44:56Z</t>
-  </si>
-  <si>
-    <t>2025-05-07T13:47:32Z</t>
-  </si>
-  <si>
-    <t>1508f7762a9dff9d1c0a2a542d8d50a9</t>
-  </si>
-  <si>
-    <t>daed46d401422def3991fcc080e03722</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.7b9758b6ca70569ad59cd9c437bea9ee1f1a27c494c9abf99ed48d6dfd8404fc.a28a4d9561^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.ff38e1e1b68621037a6074222a1c0900b4c3ae7a1130b3ab25a4a3c81cb39d6b.8d23971851^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-08T15:35:45Z</t>
+  </si>
+  <si>
+    <t>2025-05-08T15:38:35Z</t>
+  </si>
+  <si>
+    <t>cc93fb0ed2108f49d0ef74048f43f9a8</t>
+  </si>
+  <si>
+    <t>c10281a3c19be161dc6bb164a5244711</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.0a24a3e8f402c5720311c7de567fabb1f9227e22b2391461f8d53fb5941e06f6.bd46637af1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.42be95986a3235a504d19304191fb57fbd2644db75d5616edac207f402313ab8.bcb66e42fd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -10035,7 +10035,7 @@
         <v>247</v>
       </c>
       <c r="F167" s="37">
-        <v>45784</v>
+        <v>45785</v>
       </c>
       <c r="G167" s="37" t="s">
         <v>443</v>
@@ -10082,7 +10082,7 @@
         <v>248</v>
       </c>
       <c r="F168" s="37">
-        <v>45784</v>
+        <v>45785</v>
       </c>
       <c r="G168" s="37" t="s">
         <v>444</v>
@@ -17371,27 +17371,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17649,10 +17628,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17675,20 +17686,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>